--- a/DATAs/AlGaN_HEMT/AlGaN_AlGaN_AlN_HEMT/nnp/InterfaceCompGradEffect_on_2DEGdensity/2DEHG_density/OneDim/sim_post_process_data.xlsx
+++ b/DATAs/AlGaN_HEMT/AlGaN_AlGaN_AlN_HEMT/nnp/InterfaceCompGradEffect_on_2DEGdensity/2DEHG_density/OneDim/sim_post_process_data.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sim_sweep__CompositionGradLength2DEG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="fix_barrier_sweep__CompositionGradLength2DEG" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sim_sweep__CompositionGradLength2DHG" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lb_effective_scan" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lb_fix_scan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lc_effective_scan" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,22 +480,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11600608000000</v>
+        <v>11600458000000</v>
       </c>
       <c r="D2" t="n">
-        <v>11600608000000</v>
+        <v>11600458000000</v>
       </c>
       <c r="E2" t="n">
-        <v>8.0309028e-70</v>
+        <v>7.7819037e-70</v>
       </c>
       <c r="F2" t="n">
-        <v>17469328000000</v>
+        <v>16569242000000</v>
       </c>
       <c r="G2" t="n">
-        <v>3.524835e-66</v>
+        <v>3.5248491e-66</v>
       </c>
       <c r="H2" t="n">
-        <v>17316413000000</v>
+        <v>16569126000000</v>
       </c>
     </row>
     <row r="3">
@@ -506,22 +506,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>10461975000000</v>
+        <v>10461825000000</v>
       </c>
       <c r="D3" t="n">
-        <v>10461975000000</v>
+        <v>10461825000000</v>
       </c>
       <c r="E3" t="n">
-        <v>7.4251849e-70</v>
+        <v>7.195038e-70</v>
       </c>
       <c r="F3" t="n">
-        <v>17473010000000</v>
+        <v>16572925000000</v>
       </c>
       <c r="G3" t="n">
-        <v>5.053438e-69</v>
+        <v>6.9988359e-60</v>
       </c>
       <c r="H3" t="n">
-        <v>17320097000000</v>
+        <v>16572809000000</v>
       </c>
     </row>
     <row r="4">
@@ -532,22 +532,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>9023681000000</v>
+        <v>9023531700000</v>
       </c>
       <c r="D4" t="n">
-        <v>9023681000000</v>
+        <v>9023531700000</v>
       </c>
       <c r="E4" t="n">
-        <v>7.128180499999999e-70</v>
+        <v>6.907251099999999e-70</v>
       </c>
       <c r="F4" t="n">
-        <v>17474928000000</v>
+        <v>16574843000000</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4524658e-68</v>
+        <v>4.644685e-50</v>
       </c>
       <c r="H4" t="n">
-        <v>17322015000000</v>
+        <v>16574727000000</v>
       </c>
     </row>
     <row r="5">
@@ -558,22 +558,22 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>7256696000000</v>
+        <v>7256543900000</v>
       </c>
       <c r="D5" t="n">
-        <v>7256696000000</v>
+        <v>7256543900000</v>
       </c>
       <c r="E5" t="n">
-        <v>6.9366694e-70</v>
+        <v>6.7220936e-70</v>
       </c>
       <c r="F5" t="n">
-        <v>17476207000000</v>
+        <v>16576120000000</v>
       </c>
       <c r="G5" t="n">
-        <v>5.9206226e-67</v>
+        <v>2.8584055e-35</v>
       </c>
       <c r="H5" t="n">
-        <v>17323295000000</v>
+        <v>16576004000000</v>
       </c>
     </row>
     <row r="6">
@@ -584,22 +584,22 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>5195392800000</v>
+        <v>5195244000000</v>
       </c>
       <c r="D6" t="n">
-        <v>5195392800000</v>
+        <v>5195244000000</v>
       </c>
       <c r="E6" t="n">
-        <v>6.7872358e-70</v>
+        <v>6.576901100000001e-70</v>
       </c>
       <c r="F6" t="n">
-        <v>17477230000000</v>
+        <v>16577146000000</v>
       </c>
       <c r="G6" t="n">
-        <v>9.5757244e-66</v>
+        <v>2.4348611e-35</v>
       </c>
       <c r="H6" t="n">
-        <v>17324319000000</v>
+        <v>16577030000000</v>
       </c>
     </row>
     <row r="7">
@@ -610,22 +610,22 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>3000798300000</v>
+        <v>3000660700000</v>
       </c>
       <c r="D7" t="n">
-        <v>3000798300000</v>
+        <v>3000660700000</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6505877e-70</v>
+        <v>6.444780399999999e-70</v>
       </c>
       <c r="F7" t="n">
-        <v>17478186000000</v>
+        <v>16578100000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5192482e-64</v>
+        <v>2.1466848e-35</v>
       </c>
       <c r="H7" t="n">
-        <v>17325275000000</v>
+        <v>16577984000000</v>
       </c>
     </row>
   </sheetData>
@@ -692,22 +692,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11600608000000</v>
+        <v>11600458000000</v>
       </c>
       <c r="D2" t="n">
-        <v>11600608000000</v>
+        <v>11600458000000</v>
       </c>
       <c r="E2" t="n">
-        <v>8.0309028e-70</v>
+        <v>7.7819037e-70</v>
       </c>
       <c r="F2" t="n">
-        <v>17469328000000</v>
+        <v>16569242000000</v>
       </c>
       <c r="G2" t="n">
-        <v>3.524835e-66</v>
+        <v>3.5248491e-66</v>
       </c>
       <c r="H2" t="n">
-        <v>17316413000000</v>
+        <v>16569126000000</v>
       </c>
     </row>
     <row r="3">
@@ -718,22 +718,22 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>11705722000000</v>
+        <v>11705572000000</v>
       </c>
       <c r="D3" t="n">
-        <v>11705722000000</v>
+        <v>11705572000000</v>
       </c>
       <c r="E3" t="n">
-        <v>7.4314448e-70</v>
+        <v>7.2011035e-70</v>
       </c>
       <c r="F3" t="n">
-        <v>17472971000000</v>
+        <v>16572885000000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.735382e-69</v>
+        <v>1.2386337e-65</v>
       </c>
       <c r="H3" t="n">
-        <v>17320057000000</v>
+        <v>16572770000000</v>
       </c>
     </row>
     <row r="4">
@@ -744,22 +744,22 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>11823088000000</v>
+        <v>11822939000000</v>
       </c>
       <c r="D4" t="n">
-        <v>11823088000000</v>
+        <v>11822939000000</v>
       </c>
       <c r="E4" t="n">
-        <v>7.1241866e-70</v>
+        <v>6.903381900000001e-70</v>
       </c>
       <c r="F4" t="n">
-        <v>17474954000000</v>
+        <v>16574869000000</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4710269e-68</v>
+        <v>5.1729617e-65</v>
       </c>
       <c r="H4" t="n">
-        <v>17322042000000</v>
+        <v>16574753000000</v>
       </c>
     </row>
     <row r="5">
@@ -770,22 +770,22 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>11950176000000</v>
+        <v>11950328000000</v>
       </c>
       <c r="D5" t="n">
-        <v>11950176000000</v>
+        <v>11950328000000</v>
       </c>
       <c r="E5" t="n">
-        <v>6.9285288e-70</v>
+        <v>6.7141523e-70</v>
       </c>
       <c r="F5" t="n">
-        <v>17476262000000</v>
+        <v>16576175000000</v>
       </c>
       <c r="G5" t="n">
-        <v>5.987104200000001e-67</v>
+        <v>2.4677964e-64</v>
       </c>
       <c r="H5" t="n">
-        <v>17323351000000</v>
+        <v>16576059000000</v>
       </c>
     </row>
     <row r="6">
@@ -796,22 +796,22 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>12051712000000</v>
+        <v>12071626000000</v>
       </c>
       <c r="D6" t="n">
-        <v>12032169000000</v>
+        <v>12071626000000</v>
       </c>
       <c r="E6" t="n">
-        <v>6.7781963e-70</v>
+        <v>6.5665668e-70</v>
       </c>
       <c r="F6" t="n">
-        <v>17477293000000</v>
+        <v>16577220000000</v>
       </c>
       <c r="G6" t="n">
-        <v>9.6960869e-66</v>
+        <v>1.0957588e-63</v>
       </c>
       <c r="H6" t="n">
-        <v>17324382000000</v>
+        <v>16577104000000</v>
       </c>
     </row>
     <row r="7">
@@ -822,22 +822,22 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>12144767000000</v>
+        <v>12184769000000</v>
       </c>
       <c r="D7" t="n">
-        <v>11422755000000</v>
+        <v>12184769000000</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6514579e-70</v>
+        <v>6.440809299999999e-70</v>
       </c>
       <c r="F7" t="n">
-        <v>17478180000000</v>
+        <v>16578129000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5173343e-64</v>
+        <v>4.4069286e-63</v>
       </c>
       <c r="H7" t="n">
-        <v>17325269000000</v>
+        <v>16578013000000</v>
       </c>
     </row>
   </sheetData>
@@ -904,22 +904,22 @@
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>11606488000000</v>
+        <v>11606667000000</v>
       </c>
       <c r="D2" t="n">
-        <v>11606488000000</v>
+        <v>11606667000000</v>
       </c>
       <c r="E2" t="n">
-        <v>4.5174951e-58</v>
+        <v>2.8644589e-69</v>
       </c>
       <c r="F2" t="n">
-        <v>17475220000000</v>
+        <v>16575465000000</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5242835e-66</v>
+        <v>3.5242667e-66</v>
       </c>
       <c r="H2" t="n">
-        <v>7213745100000</v>
+        <v>16575444000000</v>
       </c>
     </row>
     <row r="3">
@@ -930,22 +930,22 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>11612099000000</v>
+        <v>11612280000000</v>
       </c>
       <c r="D3" t="n">
-        <v>11612099000000</v>
+        <v>11612280000000</v>
       </c>
       <c r="E3" t="n">
-        <v>1.7269844e-46</v>
+        <v>9.3032105e-69</v>
       </c>
       <c r="F3" t="n">
-        <v>17480843000000</v>
+        <v>16581090000000</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5237613e-66</v>
+        <v>3.5237445e-66</v>
       </c>
       <c r="H3" t="n">
-        <v>5362531400000</v>
+        <v>16581084000000</v>
       </c>
     </row>
     <row r="4">
@@ -956,22 +956,22 @@
         <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>11617031000000</v>
+        <v>11617083000000</v>
       </c>
       <c r="D4" t="n">
-        <v>11617031000000</v>
+        <v>11617083000000</v>
       </c>
       <c r="E4" t="n">
-        <v>4.3714103e-35</v>
+        <v>2.5490544e-68</v>
       </c>
       <c r="F4" t="n">
-        <v>17485787000000</v>
+        <v>16585903000000</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5233056e-66</v>
+        <v>3.5233008e-66</v>
       </c>
       <c r="H4" t="n">
-        <v>4738814000000</v>
+        <v>16585901000000</v>
       </c>
     </row>
     <row r="5">
@@ -982,22 +982,22 @@
         <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>11621585000000</v>
+        <v>11621464000000</v>
       </c>
       <c r="D5" t="n">
-        <v>11621585000000</v>
+        <v>11621464000000</v>
       </c>
       <c r="E5" t="n">
-        <v>7.995507e-24</v>
+        <v>6.3920839e-68</v>
       </c>
       <c r="F5" t="n">
-        <v>17490350000000</v>
+        <v>16590293000000</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5228876e-66</v>
+        <v>3.5228987e-66</v>
       </c>
       <c r="H5" t="n">
-        <v>4426076400000</v>
+        <v>16590292000000</v>
       </c>
     </row>
   </sheetData>
